--- a/artfynd/A 62545-2025 artfynd.xlsx
+++ b/artfynd/A 62545-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130961918</v>
       </c>
       <c r="B2" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>130962101</v>
       </c>
       <c r="B3" t="n">
-        <v>58516</v>
+        <v>58520</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>130961957</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>130962220</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 62545-2025 artfynd.xlsx
+++ b/artfynd/A 62545-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,6 +1107,113 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131076706</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Stor-Grundsviken, Stor-Grundsviken, Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>410740</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7037755</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 62545-2025 artfynd.xlsx
+++ b/artfynd/A 62545-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1214,6 +1214,868 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131129770</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Stor-Grundsviken, Stor-Grundsviken, Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>410609</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7037521</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>14:16</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>14:16</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131130868</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Stor-Grundsviken, Stor-Grundsviken, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>410593</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7037644</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131130889</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58520</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>102125</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tallbit</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pinicola enucleator</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Stor-Grundsviken, Stor-Grundsviken, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>410590</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7037649</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131129861</v>
+      </c>
+      <c r="B10" t="n">
+        <v>58520</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>102125</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tallbit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pinicola enucleator</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Stor-Grundsviken, Stor-Grundsviken, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>410588</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7037509</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>14:31</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>14:31</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131131304</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Stor-Grundsviken, Stor-Grundsviken, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>410603</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7037541</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131130472</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Stor-Grundsviken, Stor-Grundsviken, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>410737</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7037762</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131130696</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Stor-Grundsviken, Stor-Grundsviken, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>410606</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7037656</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131130718</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Stor-Grundsviken, Stor-Grundsviken, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>410608</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7037661</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 62545-2025 artfynd.xlsx
+++ b/artfynd/A 62545-2025 artfynd.xlsx
@@ -1654,10 +1654,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131131304</v>
+        <v>131130696</v>
       </c>
       <c r="B11" t="n">
-        <v>91828</v>
+        <v>91808</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1665,19 +1665,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1685,10 +1689,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>410603</v>
+        <v>410606</v>
       </c>
       <c r="R11" t="n">
-        <v>7037541</v>
+        <v>7037656</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1720,7 +1724,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1730,7 +1734,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1757,10 +1761,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131130472</v>
+        <v>131131304</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1768,23 +1772,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>410737</v>
+        <v>410603</v>
       </c>
       <c r="R12" t="n">
-        <v>7037762</v>
+        <v>7037541</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1864,10 +1864,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131130696</v>
+        <v>131130472</v>
       </c>
       <c r="B13" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1875,21 +1875,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>410606</v>
+        <v>410737</v>
       </c>
       <c r="R13" t="n">
-        <v>7037656</v>
+        <v>7037762</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 62545-2025 artfynd.xlsx
+++ b/artfynd/A 62545-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130961918</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>131130696</v>
       </c>
       <c r="B11" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131131304</v>
+        <v>131130472</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1772,19 +1772,23 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1792,10 +1796,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>410603</v>
+        <v>410737</v>
       </c>
       <c r="R12" t="n">
-        <v>7037541</v>
+        <v>7037762</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1827,7 +1831,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1837,7 +1841,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1864,10 +1868,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131130472</v>
+        <v>131131304</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1875,23 +1879,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>410737</v>
+        <v>410603</v>
       </c>
       <c r="R13" t="n">
-        <v>7037762</v>
+        <v>7037541</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 62545-2025 artfynd.xlsx
+++ b/artfynd/A 62545-2025 artfynd.xlsx
@@ -1654,10 +1654,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131130696</v>
+        <v>131131304</v>
       </c>
       <c r="B11" t="n">
-        <v>91809</v>
+        <v>91829</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1665,23 +1665,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1689,10 +1685,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>410606</v>
+        <v>410603</v>
       </c>
       <c r="R11" t="n">
-        <v>7037656</v>
+        <v>7037541</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1724,7 +1720,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1734,7 +1730,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1761,10 +1757,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131130472</v>
+        <v>131130696</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91809</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1772,21 +1768,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1796,10 +1792,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>410737</v>
+        <v>410606</v>
       </c>
       <c r="R12" t="n">
-        <v>7037762</v>
+        <v>7037656</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1831,7 +1827,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1841,7 +1837,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1868,10 +1864,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131131304</v>
+        <v>131130472</v>
       </c>
       <c r="B13" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1879,19 +1875,23 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>410603</v>
+        <v>410737</v>
       </c>
       <c r="R13" t="n">
-        <v>7037541</v>
+        <v>7037762</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 62545-2025 artfynd.xlsx
+++ b/artfynd/A 62545-2025 artfynd.xlsx
@@ -1654,10 +1654,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131131304</v>
+        <v>131130696</v>
       </c>
       <c r="B11" t="n">
-        <v>91829</v>
+        <v>91809</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1665,19 +1665,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1685,10 +1689,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>410603</v>
+        <v>410606</v>
       </c>
       <c r="R11" t="n">
-        <v>7037541</v>
+        <v>7037656</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1720,7 +1724,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1730,7 +1734,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1757,10 +1761,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131130696</v>
+        <v>131130472</v>
       </c>
       <c r="B12" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1768,21 +1772,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1792,10 +1796,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>410606</v>
+        <v>410737</v>
       </c>
       <c r="R12" t="n">
-        <v>7037656</v>
+        <v>7037762</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1827,7 +1831,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1837,7 +1841,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1864,10 +1868,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131130472</v>
+        <v>131131304</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1875,23 +1879,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>410737</v>
+        <v>410603</v>
       </c>
       <c r="R13" t="n">
-        <v>7037762</v>
+        <v>7037541</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
